--- a/Cronograma.xlsx
+++ b/Cronograma.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Qt Johan\Nueva carpeta (2)\Proyecto-Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Qt Johan\Proyecto-Final-infoII\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -407,7 +407,7 @@
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
-        <v>44216</v>
+        <v>44206</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>2</v>
@@ -415,7 +415,7 @@
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
-        <v>44218</v>
+        <v>44211</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>3</v>
@@ -423,7 +423,7 @@
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
-        <v>44217</v>
+        <v>44216</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -431,7 +431,7 @@
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
-        <v>44220</v>
+        <v>44217</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -439,7 +439,7 @@
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
-        <v>44224</v>
+        <v>44220</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>6</v>
@@ -447,7 +447,7 @@
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
-        <v>44225</v>
+        <v>44224</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>7</v>
